--- a/Data_science_outputs/500pop/Monthly_consumption/Montlhy_consumption_2.xlsx
+++ b/Data_science_outputs/500pop/Monthly_consumption/Montlhy_consumption_2.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6467.725421050005</v>
+        <v>3900.570070066671</v>
       </c>
       <c r="C2" t="n">
         <v>2802.412269700005</v>
       </c>
       <c r="D2" t="n">
-        <v>2806.033767966667</v>
+        <v>263.3084614166667</v>
       </c>
       <c r="E2" t="n">
         <v>760.5559989333333</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6060.909507550004</v>
+        <v>3684.504820050005</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2648.396811933333</v>
+        <v>240.0477465333333</v>
       </c>
       <c r="E3" t="n">
         <v>721.7316567333334</v>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6497.689266833338</v>
+        <v>3935.517170283338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2821.245803</v>
+        <v>277.7661802</v>
       </c>
       <c r="E4" t="n">
         <v>769.3048199333334</v>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6298.120970416671</v>
+        <v>3792.569330550004</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2736.73680785</v>
+        <v>256.7541351166667</v>
       </c>
       <c r="E5" t="n">
         <v>743.8828827166667</v>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6502.541210816671</v>
+        <v>3941.616397850005</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2806.700107616667</v>
+        <v>271.8358439</v>
       </c>
       <c r="E6" t="n">
         <v>759.1299965333333</v>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6297.830134583338</v>
+        <v>3805.007706733338</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2741.586117766667</v>
+        <v>260.4824763666667</v>
       </c>
       <c r="E7" t="n">
         <v>741.6059805333334</v>
@@ -613,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6496.013245866671</v>
+        <v>3939.895343700005</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2806.297118333333</v>
+        <v>267.8358084333333</v>
       </c>
       <c r="E8" t="n">
         <v>778.0986678666666</v>
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6487.403546466671</v>
+        <v>3925.973884166671</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2816.639138116667</v>
+        <v>263.1251272666667</v>
       </c>
       <c r="E9" t="n">
         <v>778.0730954166667</v>
@@ -659,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6268.387387416672</v>
+        <v>3794.700280216671</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2735.898463283333</v>
+        <v>257.78580565</v>
       </c>
       <c r="E10" t="n">
         <v>750.0552905166667</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>6466.788037066672</v>
+        <v>3926.574312566671</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2829.674153533334</v>
+        <v>264.3467976833333</v>
       </c>
       <c r="E11" t="n">
         <v>763.30018395</v>
@@ -705,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6294.766931000005</v>
+        <v>3789.640982833338</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2728.553454633333</v>
+        <v>261.13414755</v>
       </c>
       <c r="E12" t="n">
         <v>743.0134976833334</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>6283.582453883338</v>
+        <v>3770.267920050005</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2728.594155166666</v>
+        <v>258.2821367333333</v>
       </c>
       <c r="E13" t="n">
         <v>731.4995136</v>
